--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2773323333333333</v>
+        <v>0.1275786666666667</v>
       </c>
       <c r="H2">
-        <v>0.831997</v>
+        <v>0.382736</v>
       </c>
       <c r="I2">
-        <v>0.8087518542063997</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="J2">
-        <v>0.8087518542063996</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +561,22 @@
         <v>0.657545</v>
       </c>
       <c r="O2">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507667</v>
       </c>
       <c r="P2">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507669</v>
       </c>
       <c r="Q2">
-        <v>0.06078616304055556</v>
+        <v>0.02796290479111111</v>
       </c>
       <c r="R2">
-        <v>0.547075467365</v>
+        <v>0.25166614312</v>
       </c>
       <c r="S2">
-        <v>0.2561577868767411</v>
+        <v>0.2532231644646769</v>
       </c>
       <c r="T2">
-        <v>0.2561577868767411</v>
+        <v>0.2532231644646769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2773323333333333</v>
+        <v>0.1275786666666667</v>
       </c>
       <c r="H3">
-        <v>0.831997</v>
+        <v>0.382736</v>
       </c>
       <c r="I3">
-        <v>0.8087518542063997</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="J3">
-        <v>0.8087518542063996</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,33 +617,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4728276666666666</v>
+        <v>0.03648100000000001</v>
       </c>
       <c r="N3">
-        <v>1.418483</v>
+        <v>0.109443</v>
       </c>
       <c r="O3">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="P3">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="Q3">
-        <v>0.1311304000612222</v>
+        <v>0.004654197338666668</v>
       </c>
       <c r="R3">
-        <v>1.180173600551</v>
+        <v>0.04188777604800001</v>
       </c>
       <c r="S3">
-        <v>0.5525940673296585</v>
+        <v>0.0421469295462784</v>
       </c>
       <c r="T3">
-        <v>0.5525940673296584</v>
+        <v>0.04214692954627841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06558166666666666</v>
+        <v>0.1275786666666667</v>
       </c>
       <c r="H4">
-        <v>0.196745</v>
+        <v>0.382736</v>
       </c>
       <c r="I4">
-        <v>0.1912481457936003</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="J4">
-        <v>0.1912481457936003</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2191816666666667</v>
+        <v>0.003441</v>
       </c>
       <c r="N4">
-        <v>0.657545</v>
+        <v>0.010323</v>
       </c>
       <c r="O4">
-        <v>0.3167322406056181</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="P4">
-        <v>0.3167322406056181</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="Q4">
-        <v>0.01437429900277778</v>
+        <v>0.000438998192</v>
       </c>
       <c r="R4">
-        <v>0.129368691025</v>
+        <v>0.003950983728</v>
       </c>
       <c r="S4">
-        <v>0.06057445372887694</v>
+        <v>0.003975427882150817</v>
       </c>
       <c r="T4">
-        <v>0.06057445372887694</v>
+        <v>0.003975427882150818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,55 +714,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.2986133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.89584</v>
+      </c>
+      <c r="I5">
+        <v>0.700654478106894</v>
+      </c>
+      <c r="J5">
+        <v>0.700654478106894</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2191816666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.657545</v>
+      </c>
+      <c r="O5">
+        <v>0.8459226744507667</v>
+      </c>
+      <c r="P5">
+        <v>0.8459226744507669</v>
+      </c>
+      <c r="Q5">
+        <v>0.0654505680888889</v>
+      </c>
+      <c r="R5">
+        <v>0.5890551128</v>
+      </c>
+      <c r="S5">
+        <v>0.5926995099860899</v>
+      </c>
+      <c r="T5">
+        <v>0.59269950998609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.06558166666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.196745</v>
-      </c>
-      <c r="I5">
-        <v>0.1912481457936003</v>
-      </c>
-      <c r="J5">
-        <v>0.1912481457936003</v>
-      </c>
-      <c r="K5">
+      <c r="G6">
+        <v>0.2986133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.89584</v>
+      </c>
+      <c r="I6">
+        <v>0.700654478106894</v>
+      </c>
+      <c r="J6">
+        <v>0.700654478106894</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
-        <v>0.4728276666666666</v>
-      </c>
-      <c r="N5">
-        <v>1.418483</v>
-      </c>
-      <c r="O5">
-        <v>0.6832677593943819</v>
-      </c>
-      <c r="P5">
-        <v>0.6832677593943819</v>
-      </c>
-      <c r="Q5">
-        <v>0.03100882642611111</v>
-      </c>
-      <c r="R5">
-        <v>0.279079437835</v>
-      </c>
-      <c r="S5">
-        <v>0.1306736920647234</v>
-      </c>
-      <c r="T5">
-        <v>0.1306736920647234</v>
+      <c r="M6">
+        <v>0.03648100000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.109443</v>
+      </c>
+      <c r="O6">
+        <v>0.1407969268413801</v>
+      </c>
+      <c r="P6">
+        <v>0.1407969268413801</v>
+      </c>
+      <c r="Q6">
+        <v>0.01089371301333334</v>
+      </c>
+      <c r="R6">
+        <v>0.09804341712</v>
+      </c>
+      <c r="S6">
+        <v>0.0986499972951017</v>
+      </c>
+      <c r="T6">
+        <v>0.09864999729510172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2986133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.89584</v>
+      </c>
+      <c r="I7">
+        <v>0.700654478106894</v>
+      </c>
+      <c r="J7">
+        <v>0.700654478106894</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.003441</v>
+      </c>
+      <c r="N7">
+        <v>0.010323</v>
+      </c>
+      <c r="O7">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="P7">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="Q7">
+        <v>0.00102752848</v>
+      </c>
+      <c r="R7">
+        <v>0.00924775632</v>
+      </c>
+      <c r="S7">
+        <v>0.00930497082570228</v>
+      </c>
+      <c r="T7">
+        <v>0.009304970825702282</v>
       </c>
     </row>
   </sheetData>
